--- a/tools/bd.xlsx
+++ b/tools/bd.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\063\Desktop\backupScripts\api\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FD9329-F55E-449E-B638-92B147FF0D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8F1393-67AE-488E-AE07-52622D981999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
+    <sheet name="RED Naranja" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="165">
   <si>
     <t>Acción</t>
   </si>
@@ -102,6 +103,432 @@
   </si>
   <si>
     <t>Santiago Sánchez</t>
+  </si>
+  <si>
+    <t>Nombre de Lista</t>
+  </si>
+  <si>
+    <t>Nombre del Video</t>
+  </si>
+  <si>
+    <t>Fecha de Subida (Canal Oficial)</t>
+  </si>
+  <si>
+    <t>Duración</t>
+  </si>
+  <si>
+    <t>Tamaño</t>
+  </si>
+  <si>
+    <t>Calidad</t>
+  </si>
+  <si>
+    <t>Formato</t>
+  </si>
+  <si>
+    <t>Descargado Por</t>
+  </si>
+  <si>
+    <t>Fecha Descarga (Backup)</t>
+  </si>
+  <si>
+    <t>Enlace YouTube</t>
+  </si>
+  <si>
+    <t>Nota</t>
+  </si>
+  <si>
+    <t>RED Naranja</t>
+  </si>
+  <si>
+    <t>Video introductorio transformación digital para empresas de base creativa</t>
+  </si>
+  <si>
+    <t>19/10/2023 14:40:35</t>
+  </si>
+  <si>
+    <t>0:01:48</t>
+  </si>
+  <si>
+    <t>7.2 MB</t>
+  </si>
+  <si>
+    <t>mp4</t>
+  </si>
+  <si>
+    <t>12/12/2023 10:34:13</t>
+  </si>
+  <si>
+    <t>Creatividad e innovación  Las fuerzas del cambio</t>
+  </si>
+  <si>
+    <t>19/10/2023 14:41:28</t>
+  </si>
+  <si>
+    <t>0:01:15</t>
+  </si>
+  <si>
+    <t>4.8 MB</t>
+  </si>
+  <si>
+    <t>12/12/2023 10:34:16</t>
+  </si>
+  <si>
+    <t>Economía Naranja  Industrias de base creativa</t>
+  </si>
+  <si>
+    <t>19/10/2023 14:42:02</t>
+  </si>
+  <si>
+    <t>0:00:58</t>
+  </si>
+  <si>
+    <t>4.4 MB</t>
+  </si>
+  <si>
+    <t>12/12/2023 10:34:18</t>
+  </si>
+  <si>
+    <t>Industrias Creativas EN VI02</t>
+  </si>
+  <si>
+    <t>19/10/2023 14:42:32</t>
+  </si>
+  <si>
+    <t>0:07:44</t>
+  </si>
+  <si>
+    <t>60 MB</t>
+  </si>
+  <si>
+    <t>12/12/2023 10:34:20</t>
+  </si>
+  <si>
+    <t>Video Introductorio Design Thinking</t>
+  </si>
+  <si>
+    <t>19/10/2023 14:42:59</t>
+  </si>
+  <si>
+    <t>0:01:01</t>
+  </si>
+  <si>
+    <t>5.1 MB</t>
+  </si>
+  <si>
+    <t>12/12/2023 10:34:28</t>
+  </si>
+  <si>
+    <t>Video introductorio Pensamiento estrategico</t>
+  </si>
+  <si>
+    <t>19/10/2023 14:43:42</t>
+  </si>
+  <si>
+    <t>0:01:16</t>
+  </si>
+  <si>
+    <t>6.5 MB</t>
+  </si>
+  <si>
+    <t>12/12/2023 10:34:30</t>
+  </si>
+  <si>
+    <t>Como digitalizar mi empresa DE VI02</t>
+  </si>
+  <si>
+    <t>30/10/2023 15:17:05</t>
+  </si>
+  <si>
+    <t>0:06:17</t>
+  </si>
+  <si>
+    <t>56 MB</t>
+  </si>
+  <si>
+    <t>12/12/2023 10:34:32</t>
+  </si>
+  <si>
+    <t>Como digitalizar mi empresa DE VI03</t>
+  </si>
+  <si>
+    <t>30/10/2023 15:18:08</t>
+  </si>
+  <si>
+    <t>0:05:12</t>
+  </si>
+  <si>
+    <t>31 MB</t>
+  </si>
+  <si>
+    <t>12/12/2023 10:34:39</t>
+  </si>
+  <si>
+    <t>Como digitalizar mi empresa DE VI04</t>
+  </si>
+  <si>
+    <t>30/10/2023 15:20:13</t>
+  </si>
+  <si>
+    <t>0:02:24</t>
+  </si>
+  <si>
+    <t>19 MB</t>
+  </si>
+  <si>
+    <t>12/12/2023 10:34:43</t>
+  </si>
+  <si>
+    <t>Creatividad e innovación CI VI02</t>
+  </si>
+  <si>
+    <t>30/10/2023 15:21:35</t>
+  </si>
+  <si>
+    <t>0:08:33</t>
+  </si>
+  <si>
+    <t>33 MB</t>
+  </si>
+  <si>
+    <t>12/12/2023 10:34:46</t>
+  </si>
+  <si>
+    <t>Creatividad e innovación CI VI03</t>
+  </si>
+  <si>
+    <t>30/10/2023 15:22:34</t>
+  </si>
+  <si>
+    <t>0:01:56</t>
+  </si>
+  <si>
+    <t>8.6 MB</t>
+  </si>
+  <si>
+    <t>12/12/2023 10:34:53</t>
+  </si>
+  <si>
+    <t>Creatividad e innovación CI VI04</t>
+  </si>
+  <si>
+    <t>30/10/2023 15:23:14</t>
+  </si>
+  <si>
+    <t>0:01:32</t>
+  </si>
+  <si>
+    <t>8.7 MB</t>
+  </si>
+  <si>
+    <t>12/12/2023 10:34:55</t>
+  </si>
+  <si>
+    <t>Creatividad e innovaciónCI VI05</t>
+  </si>
+  <si>
+    <t>30/10/2023 15:24:01</t>
+  </si>
+  <si>
+    <t>0:05:10</t>
+  </si>
+  <si>
+    <t>17 MB</t>
+  </si>
+  <si>
+    <t>12/12/2023 10:34:57</t>
+  </si>
+  <si>
+    <t>Design Thinking DT VI02</t>
+  </si>
+  <si>
+    <t>30/10/2023 15:27:51</t>
+  </si>
+  <si>
+    <t>0:01:40</t>
+  </si>
+  <si>
+    <t>8.9 MB</t>
+  </si>
+  <si>
+    <t>12/12/2023 10:35:02</t>
+  </si>
+  <si>
+    <t>Design Thinking DT VI03</t>
+  </si>
+  <si>
+    <t>30/10/2023 15:28:16</t>
+  </si>
+  <si>
+    <t>0:02:53</t>
+  </si>
+  <si>
+    <t>14 MB</t>
+  </si>
+  <si>
+    <t>12/12/2023 10:35:07</t>
+  </si>
+  <si>
+    <t>Design Thinking DT VI04</t>
+  </si>
+  <si>
+    <t>30/10/2023 15:28:58</t>
+  </si>
+  <si>
+    <t>0:02:16</t>
+  </si>
+  <si>
+    <t>11 MB</t>
+  </si>
+  <si>
+    <t>12/12/2023 10:35:10</t>
+  </si>
+  <si>
+    <t>Design Thinking DT VI05</t>
+  </si>
+  <si>
+    <t>30/10/2023 15:29:31</t>
+  </si>
+  <si>
+    <t>0:02:20</t>
+  </si>
+  <si>
+    <t>12/12/2023 10:35:13</t>
+  </si>
+  <si>
+    <t>Design Thinking DT VI06</t>
+  </si>
+  <si>
+    <t>30/10/2023 15:30:00</t>
+  </si>
+  <si>
+    <t>0:02:03</t>
+  </si>
+  <si>
+    <t>12/12/2023 10:35:17</t>
+  </si>
+  <si>
+    <t>Design Thinking DT VI07</t>
+  </si>
+  <si>
+    <t>30/10/2023 15:30:41</t>
+  </si>
+  <si>
+    <t>0:01:06</t>
+  </si>
+  <si>
+    <t>3.9 MB</t>
+  </si>
+  <si>
+    <t>12/12/2023 10:35:19</t>
+  </si>
+  <si>
+    <t>Industrias Creativas EN VI03</t>
+  </si>
+  <si>
+    <t>30/10/2023 15:31:53</t>
+  </si>
+  <si>
+    <t>12/12/2023 10:35:20</t>
+  </si>
+  <si>
+    <t>pensamiento estratégico PE VI02</t>
+  </si>
+  <si>
+    <t>30/10/2023 15:32:44</t>
+  </si>
+  <si>
+    <t>0:05:46</t>
+  </si>
+  <si>
+    <t>12 MB</t>
+  </si>
+  <si>
+    <t>12/12/2023 10:35:25</t>
+  </si>
+  <si>
+    <t>pensamiento estratégico PE VI03</t>
+  </si>
+  <si>
+    <t>01/11/2023 17:35:25</t>
+  </si>
+  <si>
+    <t>0:02:04</t>
+  </si>
+  <si>
+    <t>13 MB</t>
+  </si>
+  <si>
+    <t>12/12/2023 10:35:28</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EU2O6RjaZdtOpcx6UOzmEOkBayD4ANF4tluzUA5jXMPMQA?e=jwTdhe</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EdxpAoN4p35OqITAHkaQ3u4BvolL9x5MM2CIJ372rnyo0w?e=ywVqAS</t>
+  </si>
+  <si>
+    <t>Enlace OneDrive</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EabqKmohA6lEilMuZsiquDMBgIF_mJC_-5rnzJlkzXwmDQ?e=CCh5sp</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EVWfB8wuustOqh2Ap3ykR04B6UhHTq6rVcAMe-wGvFMBJg?e=JPxkEI</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EZqz9nbGq4RAgWMVUvJ425IBy9mM4qBZffYixTatUVCu_w?e=V3CfJS</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EYAW9sKfMtFMiDM32DPpbSQBUli8sv5QyjGXvwy98Y2XtA?e=BW79fy</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EWhNZsx1w7xOlrqst7uuM5MBFk9rS08WAcHytu-HPaB-tg?e=DqDBUJ</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EZyRhHspu5lDlO0sx_BS6F8Bcu_sl-yYbZ3Q22a3yLOhtQ?e=0FM61O</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EWDEw5DIzbhChjJjpZ9_GKcBcfU3LeUbGGraL0mkEzUIaQ?e=yTvJXN</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EZMKdLehcKpDsERY-xwD3LoBTMph4RvqjX846orCTKzyWw?e=F2wgcu</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EXkD7ZvvypBOq3GjEhvoP88BBib4OPRQve-5otsgNI6M0w?e=lQ39Dd</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EdT9bd_3axFCp2tSAnGNr7YBY79USL2n1F0Eo-QYPUkMFg?e=1r4w45</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/ETy6dG-44qBJsN_G_Aqv8WgBz208XUSeegFXrPiCkbCP9Q?e=Vc8SPF</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EaRdaJsyzB9EnQQERhcdKW0BBIDbb5UIpvNxtRJr7DtHTQ?e=cd7mgy</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EbkfqQNb2RhCpgkPa3t8VUsB2nCTF_U9PG21uIt6zu4k0Q?e=4DIliT</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/ERJhWOXN6tlPtEli_yV94OEBUMQ4d5r58gy4pJ0-e0_9Xg?e=yWcGCC</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EbtijfN-nJBNjHbQSKV1e4MBj0SzmyIPhUMwwVN3MNgUMg?e=BnwHFB</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EXrhpXkA8PdPgbmtAe2vh9QBOcbNranfrBZMFI4sqgc3xA?e=feChld</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EeOqTq0-uB9Ata5mJyDMy7kBUrpBTYgaeM9uydEdVPY1jA?e=bVQhfv</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EQXngFInBBBLnL85Z6ga1SsBPLWD2bIhIW-OeNI5mbFWKg?e=xUZNqd</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/Ed6F19WGT5RBuKJ9pG4doogBO_cvBJbaJgOSL3UFTN63RA?e=fEZIOa</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EbHqD0RSZ0JEvA41rnwFy_cBolQzM6KTUHWHDTriG33b1g?e=MokFfG</t>
   </si>
 </sst>
 </file>
@@ -145,7 +572,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -253,17 +680,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -284,12 +700,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -527,6 +943,27 @@
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="tblREDNaranja" displayName="tblREDNaranja" ref="A1:L23">
+  <autoFilter ref="A1:L23" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Nombre de Lista"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Nombre del Video"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Fecha de Subida (Canal Oficial)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Duración"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Tamaño"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Calidad"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Formato"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Descargado Por"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Fecha Descarga (Backup)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Enlace YouTube"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Enlace OneDrive"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Nota"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
 </file>
 
@@ -830,8 +1267,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,124 +1311,114 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>45245</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <v>45246</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="16">
-        <v>0</v>
-      </c>
-      <c r="G2" s="19" t="s">
+      <c r="F2" s="15">
+        <v>0</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="18">
-        <v>0</v>
-      </c>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16">
         <v>45247</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="16">
         <v>45254</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="16">
-        <v>0</v>
-      </c>
-      <c r="G3" s="19" t="s">
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="18">
-        <v>0</v>
-      </c>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16">
         <v>45257</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>45258</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="16">
-        <v>0</v>
-      </c>
-      <c r="G4" s="16" t="s">
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="18">
-        <v>0</v>
-      </c>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17">
+      <c r="B5" s="15"/>
+      <c r="C5" s="16">
         <v>45259</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>45266</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="16">
-        <v>0</v>
-      </c>
-      <c r="G5" s="19" t="s">
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="18">
-        <v>0</v>
-      </c>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17">
+      <c r="B6" s="15"/>
+      <c r="C6" s="16">
         <v>45268</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="18">
-        <v>0</v>
-      </c>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
@@ -1016,13 +1443,15 @@
       <c r="D8" s="2"/>
       <c r="E8" s="1" t="str">
         <f t="shared" ref="E8:E39" si="0">IF(ISBLANK(G8), "Pendiente", "Finalizado")</f>
-        <v>Pendiente</v>
+        <v>Finalizado</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="19" t="s">
+        <v>34</v>
+      </c>
       <c r="H8" s="7">
-        <f t="shared" ref="H8:H39" ca="1" si="1">COUNTA(INDIRECT("'" &amp; G8 &amp; "'!A:A"))</f>
-        <v>1</v>
+        <f ca="1">COUNTA(INDIRECT("'" &amp; G8 &amp; "'!A:A"))-1</f>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1037,8 +1466,8 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ref="H9:H65" ca="1" si="1">COUNTA(INDIRECT("'" &amp; G9 &amp; "'!A:A"))-1</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1054,7 +1483,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1070,7 +1499,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1086,7 +1515,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1102,7 +1531,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1118,7 +1547,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1134,7 +1563,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1150,7 +1579,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1166,7 +1595,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1182,7 +1611,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1198,7 +1627,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1214,7 +1643,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1230,7 +1659,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1246,7 +1675,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1262,7 +1691,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1278,7 +1707,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1294,7 +1723,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1310,7 +1739,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1326,7 +1755,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1342,7 +1771,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1358,7 +1787,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1374,7 +1803,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1390,7 +1819,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1406,7 +1835,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1422,7 +1851,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1438,7 +1867,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1454,7 +1883,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1470,7 +1899,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1486,7 +1915,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1502,7 +1931,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1518,7 +1947,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1533,8 +1962,8 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="7">
-        <f t="shared" ref="H40:H71" ca="1" si="3">COUNTA(INDIRECT("'" &amp; G40 &amp; "'!A:A"))</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1549,8 +1978,8 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1565,8 +1994,8 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1581,8 +2010,8 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1597,8 +2026,8 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1613,8 +2042,8 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1629,8 +2058,8 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1645,8 +2074,8 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -1661,8 +2090,8 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1677,8 +2106,8 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1693,8 +2122,8 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -1709,8 +2138,8 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -1725,8 +2154,8 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1741,8 +2170,8 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -1757,8 +2186,8 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -1773,8 +2202,8 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -1789,8 +2218,8 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -1805,8 +2234,8 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -1821,8 +2250,8 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -1837,8 +2266,8 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -1853,8 +2282,8 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -1869,8 +2298,8 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -1885,8 +2314,8 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -1901,8 +2330,8 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -1917,8 +2346,8 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -1932,9 +2361,9 @@
       </c>
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
-      <c r="H65" s="14">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+      <c r="H65" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1950,10 +2379,812 @@
     <hyperlink ref="G2" r:id="rId1" location="room=3153f7ce75ca883fa7f0,IrDwE3Vyl8glUY9IrBsoQg" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="G5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G8" location="'RED Naranja'!A1" display="RED Naranja" xr:uid="{2BCE276B-9C45-4F47-9BDA-A3EFC5CC6B03}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="H8" calculatedColumn="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="130.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2">
+        <v>720</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3">
+        <v>720</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4">
+        <v>720</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5">
+        <v>720</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6">
+        <v>720</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7">
+        <v>720</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8">
+        <v>720</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9">
+        <v>720</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10">
+        <v>720</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11">
+        <v>720</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12">
+        <v>720</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13">
+        <v>720</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14">
+        <v>720</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15">
+        <v>720</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16">
+        <v>720</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17">
+        <v>720</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18">
+        <v>720</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" t="s">
+        <v>119</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19">
+        <v>720</v>
+      </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" t="s">
+        <v>123</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20">
+        <v>720</v>
+      </c>
+      <c r="G20" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21">
+        <v>720</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22">
+        <v>720</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" t="s">
+        <v>136</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23">
+        <v>720</v>
+      </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" t="s">
+        <v>141</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{674F6A48-D15A-4C74-9D28-4D9FA0A107F2}"/>
+    <hyperlink ref="K7" r:id="rId2" xr:uid="{85D43C52-37D8-4A61-A6C2-6C5C77668ACE}"/>
+    <hyperlink ref="K6" r:id="rId3" xr:uid="{20151785-A124-410B-B8E9-403AFAF157E1}"/>
+    <hyperlink ref="K23" r:id="rId4" xr:uid="{E916FFFE-1B98-40A3-9986-CADB1F047C30}"/>
+    <hyperlink ref="K22" r:id="rId5" xr:uid="{5F3452CC-0752-4494-BD5B-AABCF6E0711E}"/>
+    <hyperlink ref="K21" r:id="rId6" xr:uid="{437D1146-F71D-482E-9A20-2920FD3128E1}"/>
+    <hyperlink ref="K20" r:id="rId7" xr:uid="{435C909C-2AAC-413E-BC7C-6C213B9B26AB}"/>
+    <hyperlink ref="K19" r:id="rId8" xr:uid="{7CB08765-B9BC-49B9-9A82-AE450A289A79}"/>
+    <hyperlink ref="K18" r:id="rId9" xr:uid="{D5C29B25-5AC4-4B77-9CC1-8CAEC609F419}"/>
+    <hyperlink ref="K17" r:id="rId10" xr:uid="{A804CF90-BAC0-4D28-822D-FB9DCB73C3E1}"/>
+    <hyperlink ref="K16" r:id="rId11" xr:uid="{5ECB4F55-5AED-483D-A8FA-081D8A9A965E}"/>
+    <hyperlink ref="K15" r:id="rId12" xr:uid="{6AB26EF4-1F9E-45DA-A6AF-AAD10743B0F4}"/>
+    <hyperlink ref="K14" r:id="rId13" xr:uid="{BD26B317-32B3-4EDC-9E5A-FF0F9FD61252}"/>
+    <hyperlink ref="K13" r:id="rId14" xr:uid="{5E2EF7E7-1643-42DB-B1E1-746A677F9A1E}"/>
+    <hyperlink ref="K12" r:id="rId15" xr:uid="{024D0AE7-92A8-45E3-962E-FBE7E9F25428}"/>
+    <hyperlink ref="K11" r:id="rId16" xr:uid="{469DE74D-05EE-4F83-B939-84ACB645EA05}"/>
+    <hyperlink ref="K10" r:id="rId17" xr:uid="{9280DC8D-4A89-4631-9CFE-BE42F09A1F52}"/>
+    <hyperlink ref="K9" r:id="rId18" xr:uid="{7C88A4C8-D353-4315-94B8-9BBA03BB1497}"/>
+    <hyperlink ref="K8" r:id="rId19" xr:uid="{E4C5C4B3-811C-44A8-AFF2-1A26DAB933F8}"/>
+    <hyperlink ref="K5" r:id="rId20" xr:uid="{B99D72BF-F79D-4898-AF81-68D9B9BA498F}"/>
+    <hyperlink ref="K4" r:id="rId21" xr:uid="{FB05CBC9-7921-42D5-BB66-8A4335E9A309}"/>
+    <hyperlink ref="K3" r:id="rId22" xr:uid="{298BC86B-41A6-40DB-8FC0-1A435B20C8E7}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId23"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/tools/bd.xlsx
+++ b/tools/bd.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\063\Desktop\backupScripts\api\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8F1393-67AE-488E-AE07-52622D981999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA7BEBE8-124A-4116-91AD-CBD21DCE0EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
     <sheet name="RED Naranja" sheetId="2" r:id="rId2"/>
+    <sheet name="Expertos RUTA 23" sheetId="3" r:id="rId3"/>
+    <sheet name="XXVII Foro Ecosistema Educativo" sheetId="4" r:id="rId4"/>
+    <sheet name="PODCAST Ciencia Tecnología e In" sheetId="5" r:id="rId5"/>
+    <sheet name="IV Foro de Economías Creativas " sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="415">
   <si>
     <t>Acción</t>
   </si>
@@ -87,6 +92,9 @@
     <t>Composición de Script Subida</t>
   </si>
   <si>
+    <t>Cancelado</t>
+  </si>
+  <si>
     <t>GitHub - upload</t>
   </si>
   <si>
@@ -105,6 +113,30 @@
     <t>Santiago Sánchez</t>
   </si>
   <si>
+    <t xml:space="preserve">Se requería activar las funciones avanzadas de YouTube </t>
+  </si>
+  <si>
+    <t>RED Naranja</t>
+  </si>
+  <si>
+    <t>Registro Expertos RUTA 23</t>
+  </si>
+  <si>
+    <t>Expertos RUTA 23</t>
+  </si>
+  <si>
+    <t>Registro XXVII Foro Ecosistema Educativo</t>
+  </si>
+  <si>
+    <t>XXVII Foro Ecosistema Educativo</t>
+  </si>
+  <si>
+    <t>Registro PODCAST Ciencia Tecnología e Innovación CTI</t>
+  </si>
+  <si>
+    <t>PODCAST Ciencia Tecnología e In</t>
+  </si>
+  <si>
     <t>Nombre de Lista</t>
   </si>
   <si>
@@ -135,12 +167,12 @@
     <t>Enlace YouTube</t>
   </si>
   <si>
+    <t>Enlace OneDrive</t>
+  </si>
+  <si>
     <t>Nota</t>
   </si>
   <si>
-    <t>RED Naranja</t>
-  </si>
-  <si>
     <t>Video introductorio transformación digital para empresas de base creativa</t>
   </si>
   <si>
@@ -159,6 +191,12 @@
     <t>12/12/2023 10:34:13</t>
   </si>
   <si>
+    <t>https://youtu.be/qCf7Nrmt-a4</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EU2O6RjaZdtOpcx6UOzmEOkBayD4ANF4tluzUA5jXMPMQA?e=jwTdhe</t>
+  </si>
+  <si>
     <t>Creatividad e innovación  Las fuerzas del cambio</t>
   </si>
   <si>
@@ -174,6 +212,12 @@
     <t>12/12/2023 10:34:16</t>
   </si>
   <si>
+    <t>https://youtu.be/q-Ietpokco4</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EbHqD0RSZ0JEvA41rnwFy_cBolQzM6KTUHWHDTriG33b1g?e=MokFfG</t>
+  </si>
+  <si>
     <t>Economía Naranja  Industrias de base creativa</t>
   </si>
   <si>
@@ -189,6 +233,12 @@
     <t>12/12/2023 10:34:18</t>
   </si>
   <si>
+    <t>https://youtu.be/zgAQ7yY9-io</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/Ed6F19WGT5RBuKJ9pG4doogBO_cvBJbaJgOSL3UFTN63RA?e=fEZIOa</t>
+  </si>
+  <si>
     <t>Industrias Creativas EN VI02</t>
   </si>
   <si>
@@ -204,6 +254,15 @@
     <t>12/12/2023 10:34:20</t>
   </si>
   <si>
+    <t>https://youtu.be/9M2U-sBNS84</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EQXngFInBBBLnL85Z6ga1SsBPLWD2bIhIW-OeNI5mbFWKg?e=xUZNqd</t>
+  </si>
+  <si>
+    <t>Se ha encontrado contenido protegido por derechos de autor</t>
+  </si>
+  <si>
     <t>Video Introductorio Design Thinking</t>
   </si>
   <si>
@@ -219,6 +278,12 @@
     <t>12/12/2023 10:34:28</t>
   </si>
   <si>
+    <t>https://youtu.be/SZFCkS2ccnE</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EabqKmohA6lEilMuZsiquDMBgIF_mJC_-5rnzJlkzXwmDQ?e=CCh5sp</t>
+  </si>
+  <si>
     <t>Video introductorio Pensamiento estrategico</t>
   </si>
   <si>
@@ -234,6 +299,12 @@
     <t>12/12/2023 10:34:30</t>
   </si>
   <si>
+    <t>https://youtu.be/ZRxW1nLyhmM</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EdxpAoN4p35OqITAHkaQ3u4BvolL9x5MM2CIJ372rnyo0w?e=ywVqAS</t>
+  </si>
+  <si>
     <t>Como digitalizar mi empresa DE VI02</t>
   </si>
   <si>
@@ -249,6 +320,12 @@
     <t>12/12/2023 10:34:32</t>
   </si>
   <si>
+    <t>https://youtu.be/TBnAttnONFw</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EeOqTq0-uB9Ata5mJyDMy7kBUrpBTYgaeM9uydEdVPY1jA?e=bVQhfv</t>
+  </si>
+  <si>
     <t>Como digitalizar mi empresa DE VI03</t>
   </si>
   <si>
@@ -264,6 +341,12 @@
     <t>12/12/2023 10:34:39</t>
   </si>
   <si>
+    <t>https://youtu.be/G92YW4dnVv8</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EXrhpXkA8PdPgbmtAe2vh9QBOcbNranfrBZMFI4sqgc3xA?e=feChld</t>
+  </si>
+  <si>
     <t>Como digitalizar mi empresa DE VI04</t>
   </si>
   <si>
@@ -279,6 +362,12 @@
     <t>12/12/2023 10:34:43</t>
   </si>
   <si>
+    <t>https://youtu.be/9pjWgWhJWWU</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EbtijfN-nJBNjHbQSKV1e4MBj0SzmyIPhUMwwVN3MNgUMg?e=BnwHFB</t>
+  </si>
+  <si>
     <t>Creatividad e innovación CI VI02</t>
   </si>
   <si>
@@ -294,6 +383,12 @@
     <t>12/12/2023 10:34:46</t>
   </si>
   <si>
+    <t>https://youtu.be/VnEwsE3Lm9g</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/ERJhWOXN6tlPtEli_yV94OEBUMQ4d5r58gy4pJ0-e0_9Xg?e=yWcGCC</t>
+  </si>
+  <si>
     <t>Creatividad e innovación CI VI03</t>
   </si>
   <si>
@@ -309,6 +404,12 @@
     <t>12/12/2023 10:34:53</t>
   </si>
   <si>
+    <t>https://youtu.be/I6w0EW0Xv-4</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EbkfqQNb2RhCpgkPa3t8VUsB2nCTF_U9PG21uIt6zu4k0Q?e=4DIliT</t>
+  </si>
+  <si>
     <t>Creatividad e innovación CI VI04</t>
   </si>
   <si>
@@ -324,6 +425,12 @@
     <t>12/12/2023 10:34:55</t>
   </si>
   <si>
+    <t>https://youtu.be/Z9mcrL2n5U8</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EaRdaJsyzB9EnQQERhcdKW0BBIDbb5UIpvNxtRJr7DtHTQ?e=cd7mgy</t>
+  </si>
+  <si>
     <t>Creatividad e innovaciónCI VI05</t>
   </si>
   <si>
@@ -339,6 +446,12 @@
     <t>12/12/2023 10:34:57</t>
   </si>
   <si>
+    <t>https://youtu.be/F_LwmUtIl2E</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/ETy6dG-44qBJsN_G_Aqv8WgBz208XUSeegFXrPiCkbCP9Q?e=Vc8SPF</t>
+  </si>
+  <si>
     <t>Design Thinking DT VI02</t>
   </si>
   <si>
@@ -354,6 +467,12 @@
     <t>12/12/2023 10:35:02</t>
   </si>
   <si>
+    <t>https://youtu.be/91MxxGeNOi0</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EdT9bd_3axFCp2tSAnGNr7YBY79USL2n1F0Eo-QYPUkMFg?e=1r4w45</t>
+  </si>
+  <si>
     <t>Design Thinking DT VI03</t>
   </si>
   <si>
@@ -369,6 +488,12 @@
     <t>12/12/2023 10:35:07</t>
   </si>
   <si>
+    <t>https://youtu.be/cOuxeVF2AL0</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EXkD7ZvvypBOq3GjEhvoP88BBib4OPRQve-5otsgNI6M0w?e=lQ39Dd</t>
+  </si>
+  <si>
     <t>Design Thinking DT VI04</t>
   </si>
   <si>
@@ -384,6 +509,12 @@
     <t>12/12/2023 10:35:10</t>
   </si>
   <si>
+    <t>https://youtu.be/TcwEVNCwsts</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EZMKdLehcKpDsERY-xwD3LoBTMph4RvqjX846orCTKzyWw?e=F2wgcu</t>
+  </si>
+  <si>
     <t>Design Thinking DT VI05</t>
   </si>
   <si>
@@ -396,6 +527,12 @@
     <t>12/12/2023 10:35:13</t>
   </si>
   <si>
+    <t>https://youtu.be/rX0fei__s88</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EWDEw5DIzbhChjJjpZ9_GKcBcfU3LeUbGGraL0mkEzUIaQ?e=yTvJXN</t>
+  </si>
+  <si>
     <t>Design Thinking DT VI06</t>
   </si>
   <si>
@@ -408,6 +545,12 @@
     <t>12/12/2023 10:35:17</t>
   </si>
   <si>
+    <t>https://youtu.be/HWiOjyUjwjs</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EZyRhHspu5lDlO0sx_BS6F8Bcu_sl-yYbZ3Q22a3yLOhtQ?e=0FM61O</t>
+  </si>
+  <si>
     <t>Design Thinking DT VI07</t>
   </si>
   <si>
@@ -423,6 +566,12 @@
     <t>12/12/2023 10:35:19</t>
   </si>
   <si>
+    <t>https://youtu.be/vCrFIR_ZGsY</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EWhNZsx1w7xOlrqst7uuM5MBFk9rS08WAcHytu-HPaB-tg?e=DqDBUJ</t>
+  </si>
+  <si>
     <t>Industrias Creativas EN VI03</t>
   </si>
   <si>
@@ -432,6 +581,12 @@
     <t>12/12/2023 10:35:20</t>
   </si>
   <si>
+    <t>https://youtu.be/vKtXo-NHqTA</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EYAW9sKfMtFMiDM32DPpbSQBUli8sv5QyjGXvwy98Y2XtA?e=BW79fy</t>
+  </si>
+  <si>
     <t>pensamiento estratégico PE VI02</t>
   </si>
   <si>
@@ -447,6 +602,12 @@
     <t>12/12/2023 10:35:25</t>
   </si>
   <si>
+    <t>https://youtu.be/ikzSD0PRmd8</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EZqz9nbGq4RAgWMVUvJ425IBy9mM4qBZffYixTatUVCu_w?e=V3CfJS</t>
+  </si>
+  <si>
     <t>pensamiento estratégico PE VI03</t>
   </si>
   <si>
@@ -462,73 +623,667 @@
     <t>12/12/2023 10:35:28</t>
   </si>
   <si>
-    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EU2O6RjaZdtOpcx6UOzmEOkBayD4ANF4tluzUA5jXMPMQA?e=jwTdhe</t>
-  </si>
-  <si>
-    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EdxpAoN4p35OqITAHkaQ3u4BvolL9x5MM2CIJ372rnyo0w?e=ywVqAS</t>
-  </si>
-  <si>
-    <t>Enlace OneDrive</t>
-  </si>
-  <si>
-    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EabqKmohA6lEilMuZsiquDMBgIF_mJC_-5rnzJlkzXwmDQ?e=CCh5sp</t>
+    <t>https://youtu.be/u3f0mUfPMkA</t>
   </si>
   <si>
     <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EVWfB8wuustOqh2Ap3ykR04B6UhHTq6rVcAMe-wGvFMBJg?e=JPxkEI</t>
   </si>
   <si>
-    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EZqz9nbGq4RAgWMVUvJ425IBy9mM4qBZffYixTatUVCu_w?e=V3CfJS</t>
-  </si>
-  <si>
-    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EYAW9sKfMtFMiDM32DPpbSQBUli8sv5QyjGXvwy98Y2XtA?e=BW79fy</t>
-  </si>
-  <si>
-    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EWhNZsx1w7xOlrqst7uuM5MBFk9rS08WAcHytu-HPaB-tg?e=DqDBUJ</t>
-  </si>
-  <si>
-    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EZyRhHspu5lDlO0sx_BS6F8Bcu_sl-yYbZ3Q22a3yLOhtQ?e=0FM61O</t>
-  </si>
-  <si>
-    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EWDEw5DIzbhChjJjpZ9_GKcBcfU3LeUbGGraL0mkEzUIaQ?e=yTvJXN</t>
-  </si>
-  <si>
-    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EZMKdLehcKpDsERY-xwD3LoBTMph4RvqjX846orCTKzyWw?e=F2wgcu</t>
-  </si>
-  <si>
-    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EXkD7ZvvypBOq3GjEhvoP88BBib4OPRQve-5otsgNI6M0w?e=lQ39Dd</t>
-  </si>
-  <si>
-    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EdT9bd_3axFCp2tSAnGNr7YBY79USL2n1F0Eo-QYPUkMFg?e=1r4w45</t>
-  </si>
-  <si>
-    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/ETy6dG-44qBJsN_G_Aqv8WgBz208XUSeegFXrPiCkbCP9Q?e=Vc8SPF</t>
-  </si>
-  <si>
-    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EaRdaJsyzB9EnQQERhcdKW0BBIDbb5UIpvNxtRJr7DtHTQ?e=cd7mgy</t>
-  </si>
-  <si>
-    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EbkfqQNb2RhCpgkPa3t8VUsB2nCTF_U9PG21uIt6zu4k0Q?e=4DIliT</t>
-  </si>
-  <si>
-    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/ERJhWOXN6tlPtEli_yV94OEBUMQ4d5r58gy4pJ0-e0_9Xg?e=yWcGCC</t>
-  </si>
-  <si>
-    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EbtijfN-nJBNjHbQSKV1e4MBj0SzmyIPhUMwwVN3MNgUMg?e=BnwHFB</t>
-  </si>
-  <si>
-    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EXrhpXkA8PdPgbmtAe2vh9QBOcbNranfrBZMFI4sqgc3xA?e=feChld</t>
-  </si>
-  <si>
-    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EeOqTq0-uB9Ata5mJyDMy7kBUrpBTYgaeM9uydEdVPY1jA?e=bVQhfv</t>
-  </si>
-  <si>
-    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EQXngFInBBBLnL85Z6ga1SsBPLWD2bIhIW-OeNI5mbFWKg?e=xUZNqd</t>
-  </si>
-  <si>
-    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/Ed6F19WGT5RBuKJ9pG4doogBO_cvBJbaJgOSL3UFTN63RA?e=fEZIOa</t>
-  </si>
-  <si>
-    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EbHqD0RSZ0JEvA41rnwFy_cBolQzM6KTUHWHDTriG33b1g?e=MokFfG</t>
+    <t>Expertos RUTA 23 - Óscar Danilo Quintana</t>
+  </si>
+  <si>
+    <t>31/07/2023 14:10:43</t>
+  </si>
+  <si>
+    <t>0:17:45</t>
+  </si>
+  <si>
+    <t>144 MB</t>
+  </si>
+  <si>
+    <t>18/12/2023 09:10:59</t>
+  </si>
+  <si>
+    <t>https://youtu.be/gzYekIRFJJY</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/Eal4G_fZz2ZKl53OBGEI3X4BTu8LjvhFHIh4hNFNCsXbFQ?e=nEM2aU</t>
+  </si>
+  <si>
+    <t>Expertos RUTA 23 - Simón Acosta</t>
+  </si>
+  <si>
+    <t>31/07/2023 14:20:39</t>
+  </si>
+  <si>
+    <t>0:19:58</t>
+  </si>
+  <si>
+    <t>137 MB</t>
+  </si>
+  <si>
+    <t>18/12/2023 09:11:25</t>
+  </si>
+  <si>
+    <t>https://youtu.be/IkCxAqr8W9E</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/ERCxjnOQtuZFhXVWxK4Cvh0BSONhobRQ3FfZQva8f2zYnw?e=I97qJL</t>
+  </si>
+  <si>
+    <t>Expertos RUTA 23 - Stefania Rivera Monsalve</t>
+  </si>
+  <si>
+    <t>31/07/2023 14:18:58</t>
+  </si>
+  <si>
+    <t>0:17:10</t>
+  </si>
+  <si>
+    <t>134 MB</t>
+  </si>
+  <si>
+    <t>18/12/2023 09:11:52</t>
+  </si>
+  <si>
+    <t>https://youtu.be/C-WiwcP-VbE</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EWlwZeWs8_1JoJl-grJkB-8BtOzgyXsx55HL1P1vxMaN1A?e=rQaNse</t>
+  </si>
+  <si>
+    <t>Expertos RUTA 23 - Jhon Fredy Loaiza</t>
+  </si>
+  <si>
+    <t>31/07/2023 14:20:37</t>
+  </si>
+  <si>
+    <t>0:18:09</t>
+  </si>
+  <si>
+    <t>146 MB</t>
+  </si>
+  <si>
+    <t>18/12/2023 09:12:17</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Iomey0UbLzU</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EUqL7Z_vTz1BoEwc1KqApdABKqNlRQhdZ2p56qc1EenBHQ?e=MgBpd0</t>
+  </si>
+  <si>
+    <t>Expertos RUTA 23 - Daniel Posada</t>
+  </si>
+  <si>
+    <t>10/08/2023 14:11:18</t>
+  </si>
+  <si>
+    <t>0:11:26</t>
+  </si>
+  <si>
+    <t>65 MB</t>
+  </si>
+  <si>
+    <t>18/12/2023 09:12:36</t>
+  </si>
+  <si>
+    <t>https://youtu.be/FxEHBGA9Wtc</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/ESIgAVfJ3A9Gs9UHAt54nngBgqV9cZRWTSKDTCWJVuStyg?e=MWMX6N</t>
+  </si>
+  <si>
+    <t>XXVII Foro Ecosistema Educativo 2023</t>
+  </si>
+  <si>
+    <t>Sistematización de Experiencias FEM 2023</t>
+  </si>
+  <si>
+    <t>19/07/2023 16:20:47</t>
+  </si>
+  <si>
+    <t>0:13:22</t>
+  </si>
+  <si>
+    <t>102 MB</t>
+  </si>
+  <si>
+    <t>18/12/2023 09:45:53</t>
+  </si>
+  <si>
+    <t>https://youtu.be/c-un-rA1BYc</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>PODCAST Ciencia Tecnología e Innovación CTI</t>
+  </si>
+  <si>
+    <t>CTI Ciencia Tecnología e Innovación - PODCAST Capítulo 1 con Alexander Heredia</t>
+  </si>
+  <si>
+    <t>16/12/2022 19:26:30</t>
+  </si>
+  <si>
+    <t>0:00:42</t>
+  </si>
+  <si>
+    <t>18/12/2023 22:30:45</t>
+  </si>
+  <si>
+    <t>https://youtu.be/LZxtoFJvscA</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EdfKCfkOpUFDnuCiqKOyJdQByYf1r97vkeenSOekD22BLw?e=gIUOeL</t>
+  </si>
+  <si>
+    <t>CTI Ciencia Tecnología e Innovación - PODCAST Capítulo 2 con Catalina Sierra</t>
+  </si>
+  <si>
+    <t>16/12/2022 19:30:34</t>
+  </si>
+  <si>
+    <t>0:00:55</t>
+  </si>
+  <si>
+    <t>8.1 MB</t>
+  </si>
+  <si>
+    <t>18/12/2023 22:30:50</t>
+  </si>
+  <si>
+    <t>https://youtu.be/-iYplNzJWEQ</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/ERDVk5NEvXxBvCNtFd0YOcMBUT9G62WONXqRUDi_e24UZg?e=RKQvFw</t>
+  </si>
+  <si>
+    <t>CTI Ciencia Tecnología e Innovación - PODCAST Capítulo 3 con Johana Echeverry</t>
+  </si>
+  <si>
+    <t>16/12/2022 19:31:48</t>
+  </si>
+  <si>
+    <t>0:00:50</t>
+  </si>
+  <si>
+    <t>6.7 MB</t>
+  </si>
+  <si>
+    <t>18/12/2023 22:30:56</t>
+  </si>
+  <si>
+    <t>https://youtu.be/U-mZf7gUOPA</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EaZTiNxJfjZEtFbAtMVEynYBCo8Fbd_OlxYsAYZfa1E4nw?e=nlwBkm</t>
+  </si>
+  <si>
+    <t>CTI Ciencia Tecnología e Innovación - PODCAST Capítulo 4 con Sara Avendaño</t>
+  </si>
+  <si>
+    <t>16/12/2022 19:34:04</t>
+  </si>
+  <si>
+    <t>0:00:38</t>
+  </si>
+  <si>
+    <t>5.8 MB</t>
+  </si>
+  <si>
+    <t>18/12/2023 22:31:01</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Bt3ZgrotlW4</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EUYVQBBl6dFHsVxsMFBmWmsBysEL7_4K2uMAN92efa7x4g?e=t1ALo6</t>
+  </si>
+  <si>
+    <t>CTI Ciencia Tecnología e Innovación - PODCAST Capítulo 5 con Jenifer Espinoza</t>
+  </si>
+  <si>
+    <t>16/12/2022 19:35:32</t>
+  </si>
+  <si>
+    <t>0:01:09</t>
+  </si>
+  <si>
+    <t>18/12/2023 22:31:08</t>
+  </si>
+  <si>
+    <t>https://youtu.be/m5NID58x_Ew</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EXvWtKsjk15Ag0S_keONE9IBWXXPuSnVYsEFnJEnhZL_yQ?e=SZc3gs</t>
+  </si>
+  <si>
+    <t>CTI Ciencia Tecnología e Innovación - PODCAST Capítulo 6 con Javier Vargas</t>
+  </si>
+  <si>
+    <t>16/12/2022 19:37:51</t>
+  </si>
+  <si>
+    <t>0:01:18</t>
+  </si>
+  <si>
+    <t>10 MB</t>
+  </si>
+  <si>
+    <t>18/12/2023 22:31:13</t>
+  </si>
+  <si>
+    <t>https://youtu.be/mfsW_JrFLpI</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/ESqCBFmaaAFHtDX-kVaFaCUBekLiBahGwaqQGmmcePbg4Q?e=lip6ZR</t>
+  </si>
+  <si>
+    <t>CTI Ciencia Tecnología e Innovación - PODCAST Capítulo 7 con Verónica Muriel</t>
+  </si>
+  <si>
+    <t>16/12/2022 19:40:25</t>
+  </si>
+  <si>
+    <t>0:29:15</t>
+  </si>
+  <si>
+    <t>253 MB</t>
+  </si>
+  <si>
+    <t>18/12/2023 22:31:19</t>
+  </si>
+  <si>
+    <t>https://youtu.be/1qrSJrKbYg4</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EdkLMnUASstEqRYTrJ7PekoB4P87N6mMuQ8LsbMY7BWxlg?e=ireXUd</t>
+  </si>
+  <si>
+    <t>CTI Ciencia Tecnología e Innovación - PODCAST Capítulo 8 con Juan Carlos Arias</t>
+  </si>
+  <si>
+    <t>16/12/2022 19:42:11</t>
+  </si>
+  <si>
+    <t>0:36:32</t>
+  </si>
+  <si>
+    <t>299 MB</t>
+  </si>
+  <si>
+    <t>18/12/2023 22:31:59</t>
+  </si>
+  <si>
+    <t>https://youtu.be/kRKIhIG8qHM</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EQK0jSxM8SNFvfC9IyFKRSUBPDGk1OllYaP3pxDURoVb4g?e=OINn2p</t>
+  </si>
+  <si>
+    <t>CTI Ciencia Tecnología e Innovación - PODCAST Capítulo 9 con Daniel Carvajal</t>
+  </si>
+  <si>
+    <t>16/12/2022 19:43:23</t>
+  </si>
+  <si>
+    <t>0:32:47</t>
+  </si>
+  <si>
+    <t>281 MB</t>
+  </si>
+  <si>
+    <t>18/12/2023 22:32:57</t>
+  </si>
+  <si>
+    <t>https://youtu.be/bcK-2M190dw</t>
+  </si>
+  <si>
+    <t>CTI Ciencia Tecnología e Innovación - PODCAST Capítulo 10 con Diego Gómez</t>
+  </si>
+  <si>
+    <t>16/12/2022 19:57:12</t>
+  </si>
+  <si>
+    <t>0:39:12</t>
+  </si>
+  <si>
+    <t>322 MB</t>
+  </si>
+  <si>
+    <t>18/12/2023 22:33:46</t>
+  </si>
+  <si>
+    <t>https://youtu.be/yFCeue_GVzI</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/ERECI5J6PoJAhPtMfhQJ6bIBN9iBPddmJjAVqD6mRnxBTw?e=UzdNG6</t>
+  </si>
+  <si>
+    <t>CTI Ciencia Tecnología e Innovación - PODCAST Capítulo 11 con Laura Altamiranda y Yohana Ramírez</t>
+  </si>
+  <si>
+    <t>16/12/2022 19:58:48</t>
+  </si>
+  <si>
+    <t>0:40:02</t>
+  </si>
+  <si>
+    <t>358 MB</t>
+  </si>
+  <si>
+    <t>18/12/2023 22:35:16</t>
+  </si>
+  <si>
+    <t>https://youtu.be/FplaWKcGuGQ</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EW7XSt_qEZ9Ms4LLsQtE0MgBbmeKneLUM2meVHoUQJ92Qg?e=tE9HPY</t>
+  </si>
+  <si>
+    <t>CTI Ciencia Tecnología e Innovación - PODCAST Capítulo 12 con Juan Pablo Arango</t>
+  </si>
+  <si>
+    <t>29/06/2023 16:14:00</t>
+  </si>
+  <si>
+    <t>0:49:31</t>
+  </si>
+  <si>
+    <t>254 MB</t>
+  </si>
+  <si>
+    <t>18/12/2023 22:36:15</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ENL7p4ag20E</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EZeMbC0fZStCkRXKKabkrTsBc8p0eZJGQt9_2RyT-P6ZmQ?e=Kurqzb</t>
+  </si>
+  <si>
+    <t>CTI Ciencia Tecnología e Innovación - PODCAST Capítulo 13 con Sebastián Pérez y Fernando Ramírez</t>
+  </si>
+  <si>
+    <t>29/06/2023 16:11:22</t>
+  </si>
+  <si>
+    <t>0:31:59</t>
+  </si>
+  <si>
+    <t>213 MB</t>
+  </si>
+  <si>
+    <t>18/12/2023 22:37:31</t>
+  </si>
+  <si>
+    <t>https://youtu.be/T0B90cNimnw</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/ERQ6pbi5LKRGik2uqxP_ilYBA-fB9-estuiFoyc8USFc-A?e=L78PyW</t>
+  </si>
+  <si>
+    <t>CTI Ciencia Tecnología e Innovación - PODCAST Capítulo 14 con Juan Alzate y Henry Osorio</t>
+  </si>
+  <si>
+    <t>29/06/2023 16:14:47</t>
+  </si>
+  <si>
+    <t>0:41:38</t>
+  </si>
+  <si>
+    <t>363 MB</t>
+  </si>
+  <si>
+    <t>18/12/2023 22:38:26</t>
+  </si>
+  <si>
+    <t>https://youtu.be/fxAI5GXa55U</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/ERZq9n4_--BBi33yEmAWlg0BGJt6dvi9lGpX8ElRPZPJUQ?e=fZ8nFR</t>
+  </si>
+  <si>
+    <t>CTI Ciencia Tecnología e Innovación - PODCAST Capítulo 15 con Carolina,  Alveiro y Juan José</t>
+  </si>
+  <si>
+    <t>29/06/2023 16:19:29</t>
+  </si>
+  <si>
+    <t>0:56:01</t>
+  </si>
+  <si>
+    <t>458 MB</t>
+  </si>
+  <si>
+    <t>18/12/2023 22:39:27</t>
+  </si>
+  <si>
+    <t>https://youtu.be/93QRjjbzLb0</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/ETvzuGYlE25AoIg7tauRhH8BGiv2x_9RTNQAV-AuUZE3CA?e=AZVkJA</t>
+  </si>
+  <si>
+    <t>CTI Ciencia Tecnología e Innovación - PODCAST Capítulo 16 con Marcelo Rincón y José Alejandro Tamayo</t>
+  </si>
+  <si>
+    <t>29/06/2023 16:19:33</t>
+  </si>
+  <si>
+    <t>0:54:57</t>
+  </si>
+  <si>
+    <t>449 MB</t>
+  </si>
+  <si>
+    <t>18/12/2023 22:40:37</t>
+  </si>
+  <si>
+    <t>https://youtu.be/j9d9O60xc8o</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EVfu03n5rXZFi_bsoQYUAWcB4m8u73qwI5QCF6IDPCObmw?e=DGhvLy</t>
+  </si>
+  <si>
+    <t>IV Foro de Economías Creativas y Culturales</t>
+  </si>
+  <si>
+    <t>IV Foro de Economías Creativas y Culturales - Gabriel Londoño Secretario de Desarrollo Económico de</t>
+  </si>
+  <si>
+    <t>02/12/2022 12:46:57</t>
+  </si>
+  <si>
+    <t>0:05:28</t>
+  </si>
+  <si>
+    <t>52 MB</t>
+  </si>
+  <si>
+    <t>19/12/2023 01:51:54</t>
+  </si>
+  <si>
+    <t>IV Foro de Economías Creativas y Culturales - Braulio Espinosa Márquez Alcalde de Envigado</t>
+  </si>
+  <si>
+    <t>02/12/2022 12:51:15</t>
+  </si>
+  <si>
+    <t>0:07:38</t>
+  </si>
+  <si>
+    <t>64 MB</t>
+  </si>
+  <si>
+    <t>19/12/2023 01:52:14</t>
+  </si>
+  <si>
+    <t>IV Foro de Economías Creativas y Culturales - Javier Vargas Centro de Innovación y Desarrollo</t>
+  </si>
+  <si>
+    <t>02/12/2022 12:53:40</t>
+  </si>
+  <si>
+    <t>0:24:46</t>
+  </si>
+  <si>
+    <t>177 MB</t>
+  </si>
+  <si>
+    <t>19/12/2023 01:53:17</t>
+  </si>
+  <si>
+    <t>IV Foro de Economías Creativas y Culturales - Lorena García Área Metropolitana</t>
+  </si>
+  <si>
+    <t>03/12/2022 16:18:59</t>
+  </si>
+  <si>
+    <t>0:29:01</t>
+  </si>
+  <si>
+    <t>207 MB</t>
+  </si>
+  <si>
+    <t>19/12/2023 01:54:24</t>
+  </si>
+  <si>
+    <t>IV Foro de Economías Creativas y Culturales - Mauricio Zapata Golden Cluster Org</t>
+  </si>
+  <si>
+    <t>03/12/2022 16:20:29</t>
+  </si>
+  <si>
+    <t>0:27:57</t>
+  </si>
+  <si>
+    <t>195 MB</t>
+  </si>
+  <si>
+    <t>19/12/2023 01:55:55</t>
+  </si>
+  <si>
+    <t>IV Foro de Economías Creativas y Culturales - Mauricio Facio Lince Gobernación de Antioquia</t>
+  </si>
+  <si>
+    <t>03/12/2022 16:21:25</t>
+  </si>
+  <si>
+    <t>0:26:01</t>
+  </si>
+  <si>
+    <t>94 MB</t>
+  </si>
+  <si>
+    <t>19/12/2023 01:57:23</t>
+  </si>
+  <si>
+    <t>IV Foro de Economías Creativas y Culturales - Kevin De Cuba</t>
+  </si>
+  <si>
+    <t>03/12/2022 16:22:58</t>
+  </si>
+  <si>
+    <t>0:25:46</t>
+  </si>
+  <si>
+    <t>120 MB</t>
+  </si>
+  <si>
+    <t>19/12/2023 01:58:41</t>
+  </si>
+  <si>
+    <t>IV Foro de Economías Creativas y Culturales - Adriana Bedoya ECOPOP</t>
+  </si>
+  <si>
+    <t>03/12/2022 16:23:55</t>
+  </si>
+  <si>
+    <t>0:22:43</t>
+  </si>
+  <si>
+    <t>109 MB</t>
+  </si>
+  <si>
+    <t>19/12/2023 02:00:05</t>
+  </si>
+  <si>
+    <t>IV Foro de Economías Creativas y Culturales - Conversatorio</t>
+  </si>
+  <si>
+    <t>03/12/2022 16:24:45</t>
+  </si>
+  <si>
+    <t>0:21:40</t>
+  </si>
+  <si>
+    <t>171 MB</t>
+  </si>
+  <si>
+    <t>19/12/2023 02:01:06</t>
+  </si>
+  <si>
+    <t>https://youtu.be/yGGuveRgSkQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/vzAZ7nuGg4M</t>
+  </si>
+  <si>
+    <t>https://youtu.be/BeyWvOnYRVQ</t>
+  </si>
+  <si>
+    <t>https://youtu.be/RkSpYLh76pc</t>
+  </si>
+  <si>
+    <t>https://youtu.be/xY0uuWVjifY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/CTy--1QFJ88</t>
+  </si>
+  <si>
+    <t>https://youtu.be/lbwEh5pz6X8</t>
+  </si>
+  <si>
+    <t>https://youtu.be/wVAtIckUkeE</t>
+  </si>
+  <si>
+    <t>https://youtu.be/AL9re8_tbXw</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EepsZdukIw5Jt5oQG7R8BwgB3sK83OCZd4KuAKNjo2guMQ?e=TAksRj</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EcJ4ruPhyflGk8GENlRcPokBYYrj7cU-NOgc3OZOXfNSsg?e=vIhbim</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EcBL0KyaLCdOtGjZE2b1DlwBzcRPJq0rjkZIOqcoPXD9hg?e=q5AykS</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EY8LL5wH8XNIrWGzMDauL6gBzrL868jxzSZfU2lDtJN6Tg?e=w3QfRW</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EW5DoJuMnGRLqd_iKwtElG0Ba1tbm-aDs5_Z0tMBbPonRQ?e=ebECS9</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EfgVh4Wxd1BDqsLoIt8pgFoBMxKwbI7C4UXPgsG9uA7T-w?e=f7Xj09</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EfaIofmT-5RBvptHvrKtqRwBu-78gKaltw8jYXJtmBnM4Q?e=t91eVx</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/Ee1p3rWuufpLvqO73WHt8V4BeQDrEsuFJ496YAwmMXvJdQ?e=l8Vgtv</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EV4uuMthyThKudJkGtBFDJQBFhMoHdJR-c8MiWBGNlLIJA?e=ev06Ow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IV Foro de Economías Creativas </t>
+  </si>
+  <si>
+    <t>Registro IV Foro de Economías Creativas y Culturales</t>
   </si>
 </sst>
 </file>
@@ -552,7 +1307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -568,6 +1323,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,7 +1446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -706,6 +1467,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -962,6 +1729,90 @@
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Enlace YouTube"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Enlace OneDrive"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Nota"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="tblExpertosRUTA23" displayName="tblExpertosRUTA23" ref="A1:L6">
+  <autoFilter ref="A1:L6" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Nombre de Lista"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Nombre del Video"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Fecha de Subida (Canal Oficial)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Duración"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Tamaño"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Calidad"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Formato"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Descargado Por"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Fecha Descarga (Backup)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Enlace YouTube"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="Enlace OneDrive"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="Nota"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="tblXXVIIForoEcosistemaEducativo2023" displayName="tblXXVIIForoEcosistemaEducativo2023" ref="A1:L2">
+  <autoFilter ref="A1:L2" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Nombre de Lista"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Nombre del Video"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Fecha de Subida (Canal Oficial)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Duración"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Tamaño"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Calidad"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Formato"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Descargado Por"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Fecha Descarga (Backup)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="Enlace YouTube" dataCellStyle="Hyperlink"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="Enlace OneDrive" dataCellStyle="Hyperlink"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="Nota"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="tblPODCASTCienciaTecnologíaeInnovaciónCTI" displayName="tblPODCASTCienciaTecnologíaeInnovaciónCTI" ref="A1:L17">
+  <autoFilter ref="A1:L17" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Nombre de Lista"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Nombre del Video"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Fecha de Subida (Canal Oficial)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Duración"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Tamaño"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Calidad"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="Formato"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="Descargado Por"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="Fecha Descarga (Backup)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="Enlace YouTube"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Enlace OneDrive"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="Nota"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="tblIVForodeEconomíasCreativasyCulturales" displayName="tblIVForodeEconomíasCreativasyCulturales" ref="A1:L10">
+  <autoFilter ref="A1:L10" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Nombre de Lista"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Nombre del Video"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Fecha de Subida (Canal Oficial)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Duración"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Tamaño"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Calidad"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Formato"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Descargado Por"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Fecha Descarga (Backup)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Enlace YouTube"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Enlace OneDrive"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="Nota"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -1267,19 +2118,19 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1379,30 +2230,26 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16">
-        <v>45259</v>
-      </c>
-      <c r="D5" s="16">
-        <v>45266</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="17"/>
+      <c r="F5" s="21">
+        <v>0</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="16">
@@ -1410,13 +2257,13 @@
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>19</v>
       </c>
       <c r="H6" s="17"/>
     </row>
@@ -1432,90 +2279,134 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2">
         <v>45272</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>45274</v>
+      </c>
       <c r="E8" s="1" t="str">
         <f t="shared" ref="E8:E39" si="0">IF(ISBLANK(G8), "Pendiente", "Finalizado")</f>
         <v>Finalizado</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G8" s="19" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H8" s="7">
-        <f ca="1">COUNTA(INDIRECT("'" &amp; G8 &amp; "'!A:A"))-1</f>
+        <f t="shared" ref="H8:H39" ca="1" si="1">COUNTA(INDIRECT("'" &amp; G8 &amp; "'!A:A"))-1</f>
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45278</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45278</v>
+      </c>
       <c r="E9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Pendiente</v>
+        <v>Finalizado</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="H9" s="7">
-        <f t="shared" ref="H9:H65" ca="1" si="1">COUNTA(INDIRECT("'" &amp; G9 &amp; "'!A:A"))-1</f>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45278</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45278</v>
+      </c>
       <c r="E10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Pendiente</v>
+        <v>Finalizado</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="H10" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45279</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45279</v>
+      </c>
       <c r="E11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Pendiente</v>
+        <v>Finalizado</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="H11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45279</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45279</v>
+      </c>
       <c r="E12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Pendiente</v>
+        <v>Finalizado</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="19" t="s">
+        <v>413</v>
+      </c>
       <c r="H12" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1962,7 +2853,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="H40:H71" ca="1" si="3">COUNTA(INDIRECT("'" &amp; G40 &amp; "'!A:A"))-1</f>
         <v>0</v>
       </c>
     </row>
@@ -1978,7 +2869,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1994,7 +2885,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2010,7 +2901,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2026,7 +2917,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2042,7 +2933,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2058,7 +2949,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2074,7 +2965,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2090,7 +2981,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2106,7 +2997,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2122,7 +3013,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2138,7 +3029,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2154,7 +3045,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2170,7 +3061,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2186,7 +3077,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2202,7 +3093,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2218,7 +3109,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2234,7 +3125,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2250,7 +3141,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
       <c r="H58" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2266,7 +3157,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2282,7 +3173,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
       <c r="H60" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2298,7 +3189,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2314,7 +3205,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2330,7 +3221,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2346,7 +3237,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2362,7 +3253,7 @@
       <c r="F65" s="13"/>
       <c r="G65" s="13"/>
       <c r="H65" s="7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2379,12 +3270,14 @@
     <hyperlink ref="G2" r:id="rId1" location="room=3153f7ce75ca883fa7f0,IrDwE3Vyl8glUY9IrBsoQg" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="G5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G8" location="'RED Naranja'!A1" display="RED Naranja" xr:uid="{2BCE276B-9C45-4F47-9BDA-A3EFC5CC6B03}"/>
+    <hyperlink ref="G8" location="'RED Naranja'!A1" display="RED Naranja" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G9" location="'Expertos RUTA 23'!A1" display="Expertos RUTA 23" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G10" location="'XXVII Foro Ecosistema Educativo'!A1" display="XXVII Foro Ecosistema Educativo" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G11" location="'PODCAST Ciencia Tecnología e In'!A1" display="PODCAST Ciencia Tecnología e Innovación CTI" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G12" location="'IV Foro de Economías Creativas '!A1" display="IV Foro de Economías Creativas " xr:uid="{E6664877-6A02-4DEF-9068-B46D9B669CA9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="H8" calculatedColumn="1"/>
-  </ignoredErrors>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
     <tablePart r:id="rId4"/>
   </tableParts>
@@ -2395,8 +3288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2410,781 +3303,2325 @@
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="24.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="10" max="10" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="130.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="56.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2">
+        <v>720</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3">
+        <v>720</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4">
+        <v>720</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5">
+        <v>720</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6">
+        <v>720</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7">
+        <v>720</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8">
+        <v>720</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9">
+        <v>720</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10">
+        <v>720</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11">
+        <v>720</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12">
+        <v>720</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13">
+        <v>720</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14">
+        <v>720</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15">
+        <v>720</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16">
+        <v>720</v>
+      </c>
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17">
+        <v>720</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18">
+        <v>720</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19">
+        <v>720</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F20">
+        <v>720</v>
+      </c>
+      <c r="G20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21">
+        <v>720</v>
+      </c>
+      <c r="G21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22">
+        <v>720</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="L22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" t="s">
+        <v>191</v>
+      </c>
+      <c r="E23" t="s">
+        <v>192</v>
+      </c>
+      <c r="F23">
+        <v>720</v>
+      </c>
+      <c r="G23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" t="s">
+        <v>193</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="d0l4/PlseNsmH/Q07yyzAtixtC+frIqXmcBMrPr39tUiyIdSOsW90+iRuPZAwX85p9CB7e88zlJioCCxWiop6Q==" saltValue="OItjfcl7ZgcH3C483LXBow==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="K2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="J3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="K3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="J4" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="K4" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="J5" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="K5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="J6" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="K6" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="J7" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="K7" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="J8" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="K8" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="J9" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="K9" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="J10" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="K10" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="J11" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="K11" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="J12" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="K12" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="J13" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="K13" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="J14" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="K14" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="J15" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="K15" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="J16" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="K16" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="J17" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="K17" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="J18" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="K18" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="J19" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="K19" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="J20" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="K20" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="J21" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="K21" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="J22" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="K22" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="J23" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="K23" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId45"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
+    <col min="10" max="10" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="131.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="56.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F2">
+        <v>720</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="L2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F3">
+        <v>720</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="L3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4">
+        <v>720</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>214</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="L4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F5">
+        <v>720</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>221</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6">
+        <v>720</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="L6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="I+GYHw9mNuWdwCjmVD+hv8si7wtOAL9kiazCUoEWdMa7tSEQNAJtutmhEtiDaUZhMXI9ccKP8/syTrBJpKOeIQ==" saltValue="xofyZsCvoGEyoxXa+m6v+g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="K2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="J3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="K3" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="J4" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="K4" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="J5" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="K5" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="J6" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="K6" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId11"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2">
+        <v>720</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>236</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="K2" r:id="rId2" display="https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/Ef7vbrvvcYJCmd4DT8HlBA0Bm0wxCcBpzThep2qixIt2vQ?e=DiBgNM&amp;nav=eyJyZWZlcnJhbEluZm8iOnsicmVmZXJyYWxBcHAiOiJTdHJlYW1XZWJBcHAiLCJyZWZlcnJhbFZpZXciOiJTaGFyZURpYWxvZy1MaW5rIiwicmVmZXJyYWxBcHBQbGF0Zm9ybSI6IldlYiIsInJlZmVycmFsTW9kZSI6InZpZXcifX0%3D" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="128.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K1" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="L1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>240</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>242</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F2">
         <v>720</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>243</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>244</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>142</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>246</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>247</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>249</v>
       </c>
       <c r="F3">
         <v>720</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>250</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>251</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>253</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>254</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>255</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>256</v>
       </c>
       <c r="F4">
         <v>720</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>257</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>258</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>163</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>260</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>261</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>262</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>263</v>
       </c>
       <c r="F5">
         <v>720</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>55</v>
+        <v>264</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>265</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>162</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>267</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>268</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>269</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>154</v>
       </c>
       <c r="F6">
         <v>720</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>270</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>271</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>145</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>274</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>275</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>276</v>
       </c>
       <c r="F7">
         <v>720</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>65</v>
+        <v>277</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>143</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>280</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>281</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>282</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>283</v>
       </c>
       <c r="F8">
         <v>720</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>284</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>285</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>161</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>287</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>288</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>289</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>290</v>
       </c>
       <c r="F9">
         <v>720</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>75</v>
+        <v>291</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>292</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>160</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="F10">
         <v>720</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>80</v>
+        <v>298</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>299</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>159</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>300</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>302</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>303</v>
       </c>
       <c r="F11">
         <v>720</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>85</v>
+        <v>304</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>305</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>158</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>307</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>308</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>309</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>310</v>
       </c>
       <c r="F12">
         <v>720</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>90</v>
+        <v>311</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>312</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>157</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>314</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>315</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>316</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>317</v>
       </c>
       <c r="F13">
         <v>720</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>95</v>
+        <v>318</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>319</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>156</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>321</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>322</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>323</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>324</v>
       </c>
       <c r="F14">
         <v>720</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>100</v>
+        <v>325</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>326</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>155</v>
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>328</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>329</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>330</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>331</v>
       </c>
       <c r="F15">
         <v>720</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>105</v>
+        <v>332</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>333</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>154</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>335</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>336</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>337</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>338</v>
       </c>
       <c r="F16">
         <v>720</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s">
-        <v>110</v>
+        <v>339</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>340</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>153</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>239</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>342</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>343</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>344</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>345</v>
       </c>
       <c r="F17">
         <v>720</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>115</v>
+        <v>346</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>347</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" t="s">
-        <v>114</v>
-      </c>
-      <c r="F18">
-        <v>720</v>
-      </c>
-      <c r="G18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" t="s">
-        <v>119</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19">
-        <v>720</v>
-      </c>
-      <c r="G19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" t="s">
-        <v>123</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" t="s">
-        <v>127</v>
-      </c>
-      <c r="F20">
-        <v>720</v>
-      </c>
-      <c r="G20" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" t="s">
-        <v>128</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21">
-        <v>720</v>
-      </c>
-      <c r="G21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" t="s">
-        <v>131</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" t="s">
-        <v>133</v>
-      </c>
-      <c r="D22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22">
-        <v>720</v>
-      </c>
-      <c r="G22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" t="s">
-        <v>136</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" t="s">
-        <v>140</v>
-      </c>
-      <c r="F23">
-        <v>720</v>
-      </c>
-      <c r="G23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" t="s">
-        <v>141</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>146</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{674F6A48-D15A-4C74-9D28-4D9FA0A107F2}"/>
-    <hyperlink ref="K7" r:id="rId2" xr:uid="{85D43C52-37D8-4A61-A6C2-6C5C77668ACE}"/>
-    <hyperlink ref="K6" r:id="rId3" xr:uid="{20151785-A124-410B-B8E9-403AFAF157E1}"/>
-    <hyperlink ref="K23" r:id="rId4" xr:uid="{E916FFFE-1B98-40A3-9986-CADB1F047C30}"/>
-    <hyperlink ref="K22" r:id="rId5" xr:uid="{5F3452CC-0752-4494-BD5B-AABCF6E0711E}"/>
-    <hyperlink ref="K21" r:id="rId6" xr:uid="{437D1146-F71D-482E-9A20-2920FD3128E1}"/>
-    <hyperlink ref="K20" r:id="rId7" xr:uid="{435C909C-2AAC-413E-BC7C-6C213B9B26AB}"/>
-    <hyperlink ref="K19" r:id="rId8" xr:uid="{7CB08765-B9BC-49B9-9A82-AE450A289A79}"/>
-    <hyperlink ref="K18" r:id="rId9" xr:uid="{D5C29B25-5AC4-4B77-9CC1-8CAEC609F419}"/>
-    <hyperlink ref="K17" r:id="rId10" xr:uid="{A804CF90-BAC0-4D28-822D-FB9DCB73C3E1}"/>
-    <hyperlink ref="K16" r:id="rId11" xr:uid="{5ECB4F55-5AED-483D-A8FA-081D8A9A965E}"/>
-    <hyperlink ref="K15" r:id="rId12" xr:uid="{6AB26EF4-1F9E-45DA-A6AF-AAD10743B0F4}"/>
-    <hyperlink ref="K14" r:id="rId13" xr:uid="{BD26B317-32B3-4EDC-9E5A-FF0F9FD61252}"/>
-    <hyperlink ref="K13" r:id="rId14" xr:uid="{5E2EF7E7-1643-42DB-B1E1-746A677F9A1E}"/>
-    <hyperlink ref="K12" r:id="rId15" xr:uid="{024D0AE7-92A8-45E3-962E-FBE7E9F25428}"/>
-    <hyperlink ref="K11" r:id="rId16" xr:uid="{469DE74D-05EE-4F83-B939-84ACB645EA05}"/>
-    <hyperlink ref="K10" r:id="rId17" xr:uid="{9280DC8D-4A89-4631-9CFE-BE42F09A1F52}"/>
-    <hyperlink ref="K9" r:id="rId18" xr:uid="{7C88A4C8-D353-4315-94B8-9BBA03BB1497}"/>
-    <hyperlink ref="K8" r:id="rId19" xr:uid="{E4C5C4B3-811C-44A8-AFF2-1A26DAB933F8}"/>
-    <hyperlink ref="K5" r:id="rId20" xr:uid="{B99D72BF-F79D-4898-AF81-68D9B9BA498F}"/>
-    <hyperlink ref="K4" r:id="rId21" xr:uid="{FB05CBC9-7921-42D5-BB66-8A4335E9A309}"/>
-    <hyperlink ref="K3" r:id="rId22" xr:uid="{298BC86B-41A6-40DB-8FC0-1A435B20C8E7}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="K2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="J3" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="K3" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="J4" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="K4" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="J5" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="K5" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="J6" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="K6" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="J7" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="K7" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="J8" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="K8" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
+    <hyperlink ref="J9" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
+    <hyperlink ref="K9" r:id="rId16" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
+    <hyperlink ref="J10" r:id="rId17" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
+    <hyperlink ref="K10" r:id="rId18" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
+    <hyperlink ref="J11" r:id="rId19" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
+    <hyperlink ref="K11" r:id="rId20" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
+    <hyperlink ref="J12" r:id="rId21" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
+    <hyperlink ref="K12" r:id="rId22" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
+    <hyperlink ref="J13" r:id="rId23" xr:uid="{00000000-0004-0000-0400-000016000000}"/>
+    <hyperlink ref="K13" r:id="rId24" xr:uid="{00000000-0004-0000-0400-000017000000}"/>
+    <hyperlink ref="J14" r:id="rId25" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
+    <hyperlink ref="K14" r:id="rId26" xr:uid="{00000000-0004-0000-0400-000019000000}"/>
+    <hyperlink ref="J15" r:id="rId27" xr:uid="{00000000-0004-0000-0400-00001A000000}"/>
+    <hyperlink ref="K15" r:id="rId28" xr:uid="{00000000-0004-0000-0400-00001B000000}"/>
+    <hyperlink ref="J16" r:id="rId29" xr:uid="{00000000-0004-0000-0400-00001C000000}"/>
+    <hyperlink ref="K16" r:id="rId30" xr:uid="{00000000-0004-0000-0400-00001D000000}"/>
+    <hyperlink ref="J17" r:id="rId31" xr:uid="{00000000-0004-0000-0400-00001E000000}"/>
+    <hyperlink ref="K17" r:id="rId32" xr:uid="{00000000-0004-0000-0400-00001F000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId23"/>
+    <tablePart r:id="rId33"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
+    <col min="10" max="10" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="154" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2">
+        <v>720</v>
+      </c>
+      <c r="G2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>354</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F3">
+        <v>720</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>359</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F4">
+        <v>720</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>364</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F5">
+        <v>720</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D6" t="s">
+        <v>372</v>
+      </c>
+      <c r="E6" t="s">
+        <v>373</v>
+      </c>
+      <c r="F6">
+        <v>720</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>374</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C7" t="s">
+        <v>376</v>
+      </c>
+      <c r="D7" t="s">
+        <v>377</v>
+      </c>
+      <c r="E7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F7">
+        <v>720</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>379</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C8" t="s">
+        <v>381</v>
+      </c>
+      <c r="D8" t="s">
+        <v>382</v>
+      </c>
+      <c r="E8" t="s">
+        <v>383</v>
+      </c>
+      <c r="F8">
+        <v>720</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>384</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D9" t="s">
+        <v>387</v>
+      </c>
+      <c r="E9" t="s">
+        <v>388</v>
+      </c>
+      <c r="F9">
+        <v>720</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>389</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C10" t="s">
+        <v>391</v>
+      </c>
+      <c r="D10" t="s">
+        <v>392</v>
+      </c>
+      <c r="E10" t="s">
+        <v>393</v>
+      </c>
+      <c r="F10">
+        <v>720</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s">
+        <v>394</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>412</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J9" r:id="rId1" xr:uid="{A5498738-899C-4B28-B2D7-AB5F2FFAE036}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{4FEAD0EB-0FA4-4591-9806-ADCDA1386B63}"/>
+    <hyperlink ref="J10" r:id="rId3" xr:uid="{2FFABCCB-8B7B-4D2E-A497-78F99D65EFF2}"/>
+    <hyperlink ref="J2" r:id="rId4" xr:uid="{695968AC-181D-4149-BA05-847CABB2E89A}"/>
+    <hyperlink ref="J4" r:id="rId5" xr:uid="{27CB1502-36E7-438A-A117-335D6FB3D10D}"/>
+    <hyperlink ref="J8" r:id="rId6" xr:uid="{FD9B4C56-DF7D-4107-AE41-0072A0D20118}"/>
+    <hyperlink ref="J5" r:id="rId7" xr:uid="{0D62E615-F887-4E94-BC85-3A659BCDF0FB}"/>
+    <hyperlink ref="J7" r:id="rId8" xr:uid="{A88B3A83-93B1-4B7C-A963-5D2B554031D1}"/>
+    <hyperlink ref="J6" r:id="rId9" xr:uid="{5AD73117-CD12-443B-BF8C-FF546C3AA1EF}"/>
+    <hyperlink ref="K2" r:id="rId10" xr:uid="{EC297E24-CEA4-41DA-B3AD-A75E1B6E0B52}"/>
+    <hyperlink ref="K3" r:id="rId11" xr:uid="{58CE54C1-5FFE-4567-B791-2A1E3A55CA10}"/>
+    <hyperlink ref="K4" r:id="rId12" xr:uid="{F9BACB4A-68CC-4933-AC7A-364CAE3781B3}"/>
+    <hyperlink ref="K5" r:id="rId13" xr:uid="{D5004AA4-FF0D-4DED-BF9F-BF0862991D99}"/>
+    <hyperlink ref="K6" r:id="rId14" xr:uid="{BE53C33A-24C4-4081-B551-5A448DF8C860}"/>
+    <hyperlink ref="K7" r:id="rId15" xr:uid="{6ECAFA85-DF2B-4130-9DFD-FF689B507B65}"/>
+    <hyperlink ref="K8" r:id="rId16" xr:uid="{D1B60B34-3901-415C-8876-09726ECA8CFB}"/>
+    <hyperlink ref="K9" r:id="rId17" xr:uid="{530BE763-E832-4A74-AEB6-AED82EE5FD59}"/>
+    <hyperlink ref="K10" r:id="rId18" xr:uid="{835547D7-A0FE-432C-BFA4-D3E338C4ADF9}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>
--- a/tools/bd.xlsx
+++ b/tools/bd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\063\Desktop\backupScripts\api\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aut-backup\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA7BEBE8-124A-4116-91AD-CBD21DCE0EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49475B74-51C0-4521-8058-859854D29C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -137,6 +137,12 @@
     <t>PODCAST Ciencia Tecnología e In</t>
   </si>
   <si>
+    <t>Registro IV Foro de Economías Creativas y Culturales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IV Foro de Economías Creativas </t>
+  </si>
+  <si>
     <t>Nombre de Lista</t>
   </si>
   <si>
@@ -1106,6 +1112,12 @@
     <t>19/12/2023 01:51:54</t>
   </si>
   <si>
+    <t>https://youtu.be/RkSpYLh76pc</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EepsZdukIw5Jt5oQG7R8BwgB3sK83OCZd4KuAKNjo2guMQ?e=TAksRj</t>
+  </si>
+  <si>
     <t>IV Foro de Economías Creativas y Culturales - Braulio Espinosa Márquez Alcalde de Envigado</t>
   </si>
   <si>
@@ -1121,6 +1133,12 @@
     <t>19/12/2023 01:52:14</t>
   </si>
   <si>
+    <t>https://youtu.be/vzAZ7nuGg4M</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EcJ4ruPhyflGk8GENlRcPokBYYrj7cU-NOgc3OZOXfNSsg?e=vIhbim</t>
+  </si>
+  <si>
     <t>IV Foro de Economías Creativas y Culturales - Javier Vargas Centro de Innovación y Desarrollo</t>
   </si>
   <si>
@@ -1136,6 +1154,12 @@
     <t>19/12/2023 01:53:17</t>
   </si>
   <si>
+    <t>https://youtu.be/xY0uuWVjifY</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EcBL0KyaLCdOtGjZE2b1DlwBzcRPJq0rjkZIOqcoPXD9hg?e=q5AykS</t>
+  </si>
+  <si>
     <t>IV Foro de Economías Creativas y Culturales - Lorena García Área Metropolitana</t>
   </si>
   <si>
@@ -1151,6 +1175,12 @@
     <t>19/12/2023 01:54:24</t>
   </si>
   <si>
+    <t>https://youtu.be/lbwEh5pz6X8</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EY8LL5wH8XNIrWGzMDauL6gBzrL868jxzSZfU2lDtJN6Tg?e=w3QfRW</t>
+  </si>
+  <si>
     <t>IV Foro de Economías Creativas y Culturales - Mauricio Zapata Golden Cluster Org</t>
   </si>
   <si>
@@ -1166,6 +1196,12 @@
     <t>19/12/2023 01:55:55</t>
   </si>
   <si>
+    <t>https://youtu.be/AL9re8_tbXw</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EW5DoJuMnGRLqd_iKwtElG0Ba1tbm-aDs5_Z0tMBbPonRQ?e=ebECS9</t>
+  </si>
+  <si>
     <t>IV Foro de Economías Creativas y Culturales - Mauricio Facio Lince Gobernación de Antioquia</t>
   </si>
   <si>
@@ -1181,6 +1217,12 @@
     <t>19/12/2023 01:57:23</t>
   </si>
   <si>
+    <t>https://youtu.be/wVAtIckUkeE</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EfgVh4Wxd1BDqsLoIt8pgFoBMxKwbI7C4UXPgsG9uA7T-w?e=f7Xj09</t>
+  </si>
+  <si>
     <t>IV Foro de Economías Creativas y Culturales - Kevin De Cuba</t>
   </si>
   <si>
@@ -1196,6 +1238,12 @@
     <t>19/12/2023 01:58:41</t>
   </si>
   <si>
+    <t>https://youtu.be/CTy--1QFJ88</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EfaIofmT-5RBvptHvrKtqRwBu-78gKaltw8jYXJtmBnM4Q?e=t91eVx</t>
+  </si>
+  <si>
     <t>IV Foro de Economías Creativas y Culturales - Adriana Bedoya ECOPOP</t>
   </si>
   <si>
@@ -1211,6 +1259,12 @@
     <t>19/12/2023 02:00:05</t>
   </si>
   <si>
+    <t>https://youtu.be/yGGuveRgSkQ</t>
+  </si>
+  <si>
+    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/Ee1p3rWuufpLvqO73WHt8V4BeQDrEsuFJ496YAwmMXvJdQ?e=l8Vgtv</t>
+  </si>
+  <si>
     <t>IV Foro de Economías Creativas y Culturales - Conversatorio</t>
   </si>
   <si>
@@ -1226,64 +1280,10 @@
     <t>19/12/2023 02:01:06</t>
   </si>
   <si>
-    <t>https://youtu.be/yGGuveRgSkQ</t>
-  </si>
-  <si>
-    <t>https://youtu.be/vzAZ7nuGg4M</t>
-  </si>
-  <si>
     <t>https://youtu.be/BeyWvOnYRVQ</t>
   </si>
   <si>
-    <t>https://youtu.be/RkSpYLh76pc</t>
-  </si>
-  <si>
-    <t>https://youtu.be/xY0uuWVjifY</t>
-  </si>
-  <si>
-    <t>https://youtu.be/CTy--1QFJ88</t>
-  </si>
-  <si>
-    <t>https://youtu.be/lbwEh5pz6X8</t>
-  </si>
-  <si>
-    <t>https://youtu.be/wVAtIckUkeE</t>
-  </si>
-  <si>
-    <t>https://youtu.be/AL9re8_tbXw</t>
-  </si>
-  <si>
-    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EepsZdukIw5Jt5oQG7R8BwgB3sK83OCZd4KuAKNjo2guMQ?e=TAksRj</t>
-  </si>
-  <si>
-    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EcJ4ruPhyflGk8GENlRcPokBYYrj7cU-NOgc3OZOXfNSsg?e=vIhbim</t>
-  </si>
-  <si>
-    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EcBL0KyaLCdOtGjZE2b1DlwBzcRPJq0rjkZIOqcoPXD9hg?e=q5AykS</t>
-  </si>
-  <si>
-    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EY8LL5wH8XNIrWGzMDauL6gBzrL868jxzSZfU2lDtJN6Tg?e=w3QfRW</t>
-  </si>
-  <si>
-    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EW5DoJuMnGRLqd_iKwtElG0Ba1tbm-aDs5_Z0tMBbPonRQ?e=ebECS9</t>
-  </si>
-  <si>
-    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EfgVh4Wxd1BDqsLoIt8pgFoBMxKwbI7C4UXPgsG9uA7T-w?e=f7Xj09</t>
-  </si>
-  <si>
-    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EfaIofmT-5RBvptHvrKtqRwBu-78gKaltw8jYXJtmBnM4Q?e=t91eVx</t>
-  </si>
-  <si>
-    <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/Ee1p3rWuufpLvqO73WHt8V4BeQDrEsuFJ496YAwmMXvJdQ?e=l8Vgtv</t>
-  </si>
-  <si>
     <t>https://secenvigado.sharepoint.com/:v:/s/PracticaCEFIT2023-BackUpCID/EV4uuMthyThKudJkGtBFDJQBFhMoHdJR-c8MiWBGNlLIJA?e=ev06Ow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IV Foro de Economías Creativas </t>
-  </si>
-  <si>
-    <t>Registro IV Foro de Economías Creativas y Culturales</t>
   </si>
 </sst>
 </file>
@@ -1480,26 +1480,6 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -1681,6 +1661,26 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1695,17 +1695,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H65" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H65" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="A1:H65" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Acción" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Encargado" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Fecha de Asignación" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Fecha de Finalización" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Estado" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Notas" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Ir" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Cantidad de videos" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Acción" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Encargado" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Fecha de Asignación" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Fecha de Finalización" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Estado" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Notas" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Ir" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Cantidad de videos" dataDxfId="0">
       <calculatedColumnFormula>COUNTA(INDIRECT("'" &amp; G2 &amp; "'!A:A"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2118,8 +2118,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>414</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>23</v>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="19" t="s">
-        <v>413</v>
+        <v>33</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -3259,10 +3259,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E8:E65">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Pendiente">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="Pendiente">
       <formula>NOT(ISERROR(SEARCH("Pendiente",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3274,7 +3274,7 @@
     <hyperlink ref="G9" location="'Expertos RUTA 23'!A1" display="Expertos RUTA 23" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="G10" location="'XXVII Foro Ecosistema Educativo'!A1" display="XXVII Foro Ecosistema Educativo" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="G11" location="'PODCAST Ciencia Tecnología e In'!A1" display="PODCAST Ciencia Tecnología e Innovación CTI" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="G12" location="'IV Foro de Economías Creativas '!A1" display="IV Foro de Economías Creativas " xr:uid="{E6664877-6A02-4DEF-9068-B46D9B669CA9}"/>
+    <hyperlink ref="G12" location="'IV Foro de Economías Creativas '!A1" display="IV Foro de Economías Creativas " xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3310,40 +3310,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -3351,34 +3351,34 @@
         <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>720</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -3386,34 +3386,34 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F3">
         <v>720</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3421,34 +3421,34 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F4">
         <v>720</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3456,37 +3456,37 @@
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F5">
         <v>720</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -3494,34 +3494,34 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F6">
         <v>720</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -3529,34 +3529,34 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F7">
         <v>720</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3564,34 +3564,34 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F8">
         <v>720</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
         <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -3599,34 +3599,34 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F9">
         <v>720</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -3634,34 +3634,34 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F10">
         <v>720</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3669,34 +3669,34 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F11">
         <v>720</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3704,34 +3704,34 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F12">
         <v>720</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
         <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -3739,34 +3739,34 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F13">
         <v>720</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
         <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -3774,34 +3774,34 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F14">
         <v>720</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
         <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -3809,34 +3809,34 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F15">
         <v>720</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s">
         <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -3844,34 +3844,34 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F16">
         <v>720</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s">
         <v>23</v>
       </c>
       <c r="I16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -3879,34 +3879,34 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F17">
         <v>720</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s">
         <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -3914,34 +3914,34 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C18" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E18" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F18">
         <v>720</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s">
         <v>23</v>
       </c>
       <c r="I18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -3949,34 +3949,34 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F19">
         <v>720</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s">
         <v>23</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -3984,34 +3984,34 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D20" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F20">
         <v>720</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H20" t="s">
         <v>23</v>
       </c>
       <c r="I20" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -4019,34 +4019,34 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F21">
         <v>720</v>
       </c>
       <c r="G21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s">
         <v>23</v>
       </c>
       <c r="I21" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -4054,37 +4054,37 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D22" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F22">
         <v>720</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s">
         <v>23</v>
       </c>
       <c r="I22" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -4092,34 +4092,34 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C23" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E23" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F23">
         <v>720</v>
       </c>
       <c r="G23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H23" t="s">
         <v>23</v>
       </c>
       <c r="I23" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4201,40 +4201,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -4242,37 +4242,37 @@
         <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F2">
         <v>720</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -4280,37 +4280,37 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F3">
         <v>720</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -4318,37 +4318,37 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F4">
         <v>720</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -4356,37 +4356,37 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C5" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F5">
         <v>720</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -4394,37 +4394,37 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F6">
         <v>720</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4474,75 +4474,75 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F2">
         <v>720</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -4583,600 +4583,600 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>720</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F3">
         <v>720</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F4">
         <v>720</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F5">
         <v>720</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F6">
         <v>720</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F7">
         <v>720</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D8" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E8" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F8">
         <v>720</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
         <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D9" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F9">
         <v>720</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E10" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F10">
         <v>720</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B11" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C11" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D11" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E11" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F11">
         <v>720</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B12" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C12" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D12" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E12" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F12">
         <v>720</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
         <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B13" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C13" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D13" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E13" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F13">
         <v>720</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
         <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B14" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C14" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D14" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E14" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F14">
         <v>720</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
         <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B15" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C15" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D15" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E15" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F15">
         <v>720</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s">
         <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B16" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C16" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D16" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E16" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F16">
         <v>720</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s">
         <v>23</v>
       </c>
       <c r="I16" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B17" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C17" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D17" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E17" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F17">
         <v>720</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s">
         <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -5225,7 +5225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -5247,377 +5247,377 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F2">
         <v>720</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>404</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B3" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C3" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D3" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E3" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="F3">
         <v>720</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B4" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C4" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D4" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E4" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F4">
         <v>720</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B5" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="C5" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="D5" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="E5" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="F5">
         <v>720</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B6" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="C6" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="D6" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="E6" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="F6">
         <v>720</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B7" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="C7" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="D7" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="E7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="F7">
         <v>720</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B8" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="C8" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="D8" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="E8" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="F8">
         <v>720</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
         <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="J8" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="K8" s="19" t="s">
         <v>400</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B9" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
       <c r="C9" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="D9" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="E9" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="F9">
         <v>720</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
         <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B10" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="C10" t="s">
-        <v>391</v>
+        <v>409</v>
       </c>
       <c r="D10" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="E10" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="F10">
         <v>720</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J9" r:id="rId1" xr:uid="{A5498738-899C-4B28-B2D7-AB5F2FFAE036}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{4FEAD0EB-0FA4-4591-9806-ADCDA1386B63}"/>
-    <hyperlink ref="J10" r:id="rId3" xr:uid="{2FFABCCB-8B7B-4D2E-A497-78F99D65EFF2}"/>
-    <hyperlink ref="J2" r:id="rId4" xr:uid="{695968AC-181D-4149-BA05-847CABB2E89A}"/>
-    <hyperlink ref="J4" r:id="rId5" xr:uid="{27CB1502-36E7-438A-A117-335D6FB3D10D}"/>
-    <hyperlink ref="J8" r:id="rId6" xr:uid="{FD9B4C56-DF7D-4107-AE41-0072A0D20118}"/>
-    <hyperlink ref="J5" r:id="rId7" xr:uid="{0D62E615-F887-4E94-BC85-3A659BCDF0FB}"/>
-    <hyperlink ref="J7" r:id="rId8" xr:uid="{A88B3A83-93B1-4B7C-A963-5D2B554031D1}"/>
-    <hyperlink ref="J6" r:id="rId9" xr:uid="{5AD73117-CD12-443B-BF8C-FF546C3AA1EF}"/>
-    <hyperlink ref="K2" r:id="rId10" xr:uid="{EC297E24-CEA4-41DA-B3AD-A75E1B6E0B52}"/>
-    <hyperlink ref="K3" r:id="rId11" xr:uid="{58CE54C1-5FFE-4567-B791-2A1E3A55CA10}"/>
-    <hyperlink ref="K4" r:id="rId12" xr:uid="{F9BACB4A-68CC-4933-AC7A-364CAE3781B3}"/>
-    <hyperlink ref="K5" r:id="rId13" xr:uid="{D5004AA4-FF0D-4DED-BF9F-BF0862991D99}"/>
-    <hyperlink ref="K6" r:id="rId14" xr:uid="{BE53C33A-24C4-4081-B551-5A448DF8C860}"/>
-    <hyperlink ref="K7" r:id="rId15" xr:uid="{6ECAFA85-DF2B-4130-9DFD-FF689B507B65}"/>
-    <hyperlink ref="K8" r:id="rId16" xr:uid="{D1B60B34-3901-415C-8876-09726ECA8CFB}"/>
-    <hyperlink ref="K9" r:id="rId17" xr:uid="{530BE763-E832-4A74-AEB6-AED82EE5FD59}"/>
-    <hyperlink ref="K10" r:id="rId18" xr:uid="{835547D7-A0FE-432C-BFA4-D3E338C4ADF9}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="K2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="J3" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="K3" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="J4" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="K4" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="J5" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="K5" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="J6" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="K6" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="J7" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="K7" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
+    <hyperlink ref="J8" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
+    <hyperlink ref="K8" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
+    <hyperlink ref="J9" r:id="rId15" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
+    <hyperlink ref="K9" r:id="rId16" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
+    <hyperlink ref="J10" r:id="rId17" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
+    <hyperlink ref="K10" r:id="rId18" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
